--- a/app/COVID19master/data/age_dist_univ.xlsx
+++ b/app/COVID19master/data/age_dist_univ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eleanor/Documents/GitHub/COVID19/university_model/scenario_analysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eleanor/Documents/GitHub/COVID-University/app/COVID19master/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAAEA05-D542-AC40-A6F1-615BFD71D62E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA820FF-E93D-E94C-8378-246D32FDC2D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="1220" windowWidth="27220" windowHeight="16540" activeTab="1" xr2:uid="{6D6CE918-7232-3142-AF5C-E0AADD2AFDE8}"/>
+    <workbookView xWindow="15040" yWindow="700" windowWidth="27220" windowHeight="16540" activeTab="1" xr2:uid="{6D6CE918-7232-3142-AF5C-E0AADD2AFDE8}"/>
   </bookViews>
   <sheets>
     <sheet name="UMASS_old" sheetId="1" r:id="rId1"/>
@@ -1533,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD27CC49-21BA-D944-8A2B-0E317B28F46A}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1720,7 +1720,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.0507791142700946E-3</v>
+        <v>1.0507791142700949E-3</v>
       </c>
       <c r="C17">
         <v>1.1050165583644492E-3</v>
@@ -1731,7 +1731,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.0507791142700946E-3</v>
+        <v>1.0507791142700949E-3</v>
       </c>
       <c r="C18">
         <v>1.1050165583644492E-3</v>
@@ -1742,7 +1742,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.0507791142700946E-3</v>
+        <v>1.0507791142700949E-3</v>
       </c>
       <c r="C19">
         <v>1.1050165583644492E-3</v>
@@ -1753,10 +1753,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.4552436440678082E-2</v>
+        <v>6.4552436440678096E-2</v>
       </c>
       <c r="C20">
-        <v>6.788440137513306E-2</v>
+        <v>6.7884401375133074E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1764,10 +1764,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.4552436440678082E-2</v>
+        <v>6.4552436440678096E-2</v>
       </c>
       <c r="C21">
-        <v>6.788440137513306E-2</v>
+        <v>6.7884401375133074E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1775,10 +1775,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.3680795815417505E-2</v>
+        <v>6.4552436440678096E-2</v>
       </c>
       <c r="C22">
-        <v>7.6619758976400373E-2</v>
+        <v>6.7884401375133074E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1786,10 +1786,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.3680795815417505E-2</v>
+        <v>6.4552436440678096E-2</v>
       </c>
       <c r="C23">
-        <v>7.6619758976400373E-2</v>
+        <v>6.7884401375133074E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1797,10 +1797,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.342920683236659E-2</v>
+        <v>1.4300847457627145E-2</v>
       </c>
       <c r="C24">
-        <v>2.3774363444373704E-2</v>
+        <v>1.5039005843106409E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1808,10 +1808,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.342920683236659E-2</v>
+        <v>1.4300847457627145E-2</v>
       </c>
       <c r="C25">
-        <v>2.3774363444373704E-2</v>
+        <v>1.5039005843106409E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1819,10 +1819,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.342920683236659E-2</v>
+        <v>1.4300847457627145E-2</v>
       </c>
       <c r="C26">
-        <v>2.3774363444373704E-2</v>
+        <v>1.5039005843106409E-2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1830,10 +1830,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.5582644028511214E-2</v>
+        <v>1.4300847457627145E-2</v>
       </c>
       <c r="C27">
-        <v>1.6265617434422081E-2</v>
+        <v>1.5039005843106409E-2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1841,10 +1841,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7.5147107316276569E-3</v>
+        <v>6.2329141607435877E-3</v>
       </c>
       <c r="C28">
-        <v>7.7812463960530934E-3</v>
+        <v>6.5546348047374157E-3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1852,10 +1852,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7.5147107316276569E-3</v>
+        <v>6.2329141607435877E-3</v>
       </c>
       <c r="C29">
-        <v>7.7812463960530934E-3</v>
+        <v>6.5546348047374157E-3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1863,10 +1863,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7.5147107316276569E-3</v>
+        <v>6.2329141607435877E-3</v>
       </c>
       <c r="C30">
-        <v>7.7812463960530934E-3</v>
+        <v>6.5546348047374157E-3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1874,10 +1874,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7.5147107316276569E-3</v>
+        <v>6.2329141607435877E-3</v>
       </c>
       <c r="C31">
-        <v>7.7812463960530934E-3</v>
+        <v>6.5546348047374157E-3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1885,10 +1885,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7.009098011769333E-3</v>
+        <v>8.0783509190232531E-3</v>
       </c>
       <c r="C32">
-        <v>7.2974017384978673E-3</v>
+        <v>8.3206202740109137E-3</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1896,10 +1896,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>3.8670121725129071E-3</v>
+        <v>4.9362650797668229E-3</v>
       </c>
       <c r="C33">
-        <v>3.9931327127544171E-3</v>
+        <v>5.0163512482674626E-3</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1907,10 +1907,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>3.8670121725129071E-3</v>
+        <v>4.9362650797668229E-3</v>
       </c>
       <c r="C34">
-        <v>3.9931327127544171E-3</v>
+        <v>5.0163512482674626E-3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1918,10 +1918,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>3.8670121725129071E-3</v>
+        <v>4.9362650797668229E-3</v>
       </c>
       <c r="C35">
-        <v>3.9931327127544171E-3</v>
+        <v>5.0163512482674626E-3</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1929,10 +1929,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>3.8670121725129071E-3</v>
+        <v>4.9362650797668229E-3</v>
       </c>
       <c r="C36">
-        <v>3.9931327127544171E-3</v>
+        <v>5.0163512482674626E-3</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1940,10 +1940,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>3.724894002606784E-3</v>
+        <v>4.5983682085325188E-3</v>
       </c>
       <c r="C37">
-        <v>3.8571331333334897E-3</v>
+        <v>4.6930017961469631E-3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1951,10 +1951,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>3.724894002606784E-3</v>
+        <v>4.5983682085325188E-3</v>
       </c>
       <c r="C38">
-        <v>3.8571331333334897E-3</v>
+        <v>4.6930017961469631E-3</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1962,10 +1962,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>3.724894002606784E-3</v>
+        <v>4.5983682085325188E-3</v>
       </c>
       <c r="C39">
-        <v>3.8571331333334897E-3</v>
+        <v>4.6930017961469631E-3</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1973,10 +1973,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>3.724894002606784E-3</v>
+        <v>4.5983682085325188E-3</v>
       </c>
       <c r="C40">
-        <v>3.8571331333334897E-3</v>
+        <v>4.6930017961469631E-3</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1984,10 +1984,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>3.724894002606784E-3</v>
+        <v>4.5983682085325188E-3</v>
       </c>
       <c r="C41">
-        <v>3.8571331333334897E-3</v>
+        <v>4.6930017961469631E-3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1995,10 +1995,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>3.8212337235527605E-3</v>
+        <v>4.8274232991288519E-3</v>
       </c>
       <c r="C42">
-        <v>3.949325155921714E-3</v>
+        <v>4.9121954151324938E-3</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -2006,10 +2006,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.7764634291727395E-3</v>
+        <v>2.7826530047488289E-3</v>
       </c>
       <c r="C43">
-        <v>1.7990111625652734E-3</v>
+        <v>2.7618814217760523E-3</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -2017,10 +2017,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.7764634291727395E-3</v>
+        <v>2.7826530047488289E-3</v>
       </c>
       <c r="C44">
-        <v>1.7990111625652734E-3</v>
+        <v>2.7618814217760523E-3</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -2028,10 +2028,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.7764634291727395E-3</v>
+        <v>2.7826530047488289E-3</v>
       </c>
       <c r="C45">
-        <v>1.7990111625652734E-3</v>
+        <v>2.7618814217760523E-3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -2039,10 +2039,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.7764634291727395E-3</v>
+        <v>2.7826530047488289E-3</v>
       </c>
       <c r="C46">
-        <v>1.7990111625652734E-3</v>
+        <v>2.7618814217760523E-3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -2050,10 +2050,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.843422951532355E-3</v>
+        <v>2.9418544152342223E-3</v>
       </c>
       <c r="C47">
-        <v>1.8630878874847489E-3</v>
+        <v>2.9142287597943638E-3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -2061,10 +2061,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.843422951532355E-3</v>
+        <v>2.9418544152342223E-3</v>
       </c>
       <c r="C48">
-        <v>1.8630878874847489E-3</v>
+        <v>2.9142287597943638E-3</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -2072,10 +2072,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.843422951532355E-3</v>
+        <v>2.9418544152342223E-3</v>
       </c>
       <c r="C49">
-        <v>1.8630878874847489E-3</v>
+        <v>2.9142287597943638E-3</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -2083,10 +2083,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.843422951532355E-3</v>
+        <v>2.9418544152342223E-3</v>
       </c>
       <c r="C50">
-        <v>1.8630878874847489E-3</v>
+        <v>2.9142287597943638E-3</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -2094,10 +2094,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.843422951532355E-3</v>
+        <v>2.9418544152342223E-3</v>
       </c>
       <c r="C51">
-        <v>1.8630878874847489E-3</v>
+        <v>2.9142287597943638E-3</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -2105,10 +2105,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.968459610632454E-3</v>
+        <v>3.239138681752865E-3</v>
       </c>
       <c r="C52">
-        <v>1.9827413636098923E-3</v>
+        <v>3.1987140950734557E-3</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -2116,10 +2116,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.968459610632454E-3</v>
+        <v>3.239138681752865E-3</v>
       </c>
       <c r="C53">
-        <v>1.9827413636098923E-3</v>
+        <v>3.1987140950734557E-3</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -2127,10 +2127,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.968459610632454E-3</v>
+        <v>3.239138681752865E-3</v>
       </c>
       <c r="C54">
-        <v>1.9827413636098923E-3</v>
+        <v>3.1987140950734557E-3</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -2138,10 +2138,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.968459610632454E-3</v>
+        <v>3.239138681752865E-3</v>
       </c>
       <c r="C55">
-        <v>1.9827413636098923E-3</v>
+        <v>3.1987140950734557E-3</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -2149,10 +2149,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.968459610632454E-3</v>
+        <v>3.239138681752865E-3</v>
       </c>
       <c r="C56">
-        <v>1.9827413636098923E-3</v>
+        <v>3.1987140950734557E-3</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -2160,10 +2160,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.9992063300832978E-3</v>
+        <v>3.3122413702410558E-3</v>
       </c>
       <c r="C57">
-        <v>2.0121643495423043E-3</v>
+        <v>3.2686695053879889E-3</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -2171,10 +2171,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.9992063300832978E-3</v>
+        <v>3.3122413702410558E-3</v>
       </c>
       <c r="C58">
-        <v>2.0121643495423043E-3</v>
+        <v>3.2686695053879889E-3</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -2182,10 +2182,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.9992063300832978E-3</v>
+        <v>3.3122413702410558E-3</v>
       </c>
       <c r="C59">
-        <v>2.0121643495423043E-3</v>
+        <v>3.2686695053879889E-3</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -2193,10 +2193,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.9992063300832978E-3</v>
+        <v>3.3122413702410558E-3</v>
       </c>
       <c r="C60">
-        <v>2.0121643495423043E-3</v>
+        <v>3.2686695053879889E-3</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -2204,10 +2204,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.9992063300832978E-3</v>
+        <v>3.3122413702410558E-3</v>
       </c>
       <c r="C61">
-        <v>2.0121643495423043E-3</v>
+        <v>3.2686695053879889E-3</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -2215,10 +2215,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>8.6326958213936292E-4</v>
+        <v>2.0115869649296615E-3</v>
       </c>
       <c r="C62">
-        <v>8.2891428254893004E-4</v>
+        <v>1.9277933435752628E-3</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -2226,10 +2226,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>8.6326958213936292E-4</v>
+        <v>2.0115869649296615E-3</v>
       </c>
       <c r="C63">
-        <v>8.2891428254893004E-4</v>
+        <v>1.9277933435752628E-3</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -2237,10 +2237,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>8.6326958213936292E-4</v>
+        <v>2.0115869649296615E-3</v>
       </c>
       <c r="C64">
-        <v>8.2891428254893004E-4</v>
+        <v>1.9277933435752628E-3</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -2248,10 +2248,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>8.6326958213936292E-4</v>
+        <v>2.0115869649296615E-3</v>
       </c>
       <c r="C65">
-        <v>8.2891428254893004E-4</v>
+        <v>1.9277933435752628E-3</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -2259,10 +2259,10 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>8.6326958213936292E-4</v>
+        <v>2.0115869649296615E-3</v>
       </c>
       <c r="C66">
-        <v>8.2891428254893004E-4</v>
+        <v>1.9277933435752628E-3</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -2270,10 +2270,10 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5.7766672146263476E-4</v>
+        <v>1.3325442140837982E-3</v>
       </c>
       <c r="C67">
-        <v>5.5560743544341164E-4</v>
+        <v>1.2779853099869512E-3</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -2281,10 +2281,10 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5.7766672146263476E-4</v>
+        <v>1.3325442140837982E-3</v>
       </c>
       <c r="C68">
-        <v>5.5560743544341164E-4</v>
+        <v>1.2779853099869512E-3</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -2292,10 +2292,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5.7766672146263476E-4</v>
+        <v>1.3325442140837982E-3</v>
       </c>
       <c r="C69">
-        <v>5.5560743544341164E-4</v>
+        <v>1.2779853099869512E-3</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -2303,10 +2303,10 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5.7766672146263476E-4</v>
+        <v>1.3325442140837982E-3</v>
       </c>
       <c r="C70">
-        <v>5.5560743544341164E-4</v>
+        <v>1.2779853099869512E-3</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -2314,10 +2314,10 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5.7766672146263476E-4</v>
+        <v>1.3325442140837982E-3</v>
       </c>
       <c r="C71">
-        <v>5.5560743544341164E-4</v>
+        <v>1.2779853099869512E-3</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -2325,10 +2325,10 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>4.2529964507289708E-4</v>
+        <v>9.7027978002009604E-4</v>
       </c>
       <c r="C72">
-        <v>4.0980019404501268E-4</v>
+        <v>9.3131738776160806E-4</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -2336,10 +2336,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>4.2529964507289708E-4</v>
+        <v>9.7027978002009604E-4</v>
       </c>
       <c r="C73">
-        <v>4.0980019404501268E-4</v>
+        <v>9.3131738776160806E-4</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -2347,10 +2347,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>4.2529964507289708E-4</v>
+        <v>9.7027978002009604E-4</v>
       </c>
       <c r="C74">
-        <v>4.0980019404501268E-4</v>
+        <v>9.3131738776160806E-4</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -2358,10 +2358,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>4.2529964507289708E-4</v>
+        <v>9.7027978002009604E-4</v>
       </c>
       <c r="C75">
-        <v>4.0980019404501268E-4</v>
+        <v>9.3131738776160806E-4</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -2369,10 +2369,10 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>4.2529964507289708E-4</v>
+        <v>9.7027978002009604E-4</v>
       </c>
       <c r="C76">
-        <v>4.0980019404501268E-4</v>
+        <v>9.3131738776160806E-4</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -2380,10 +2380,10 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>3.7610489395154651E-4</v>
+        <v>8.5331547843899046E-4</v>
       </c>
       <c r="C77">
-        <v>3.6272341655315283E-4</v>
+        <v>8.1938873125835822E-4</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -2391,10 +2391,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>3.7610489395154651E-4</v>
+        <v>8.5331547843899046E-4</v>
       </c>
       <c r="C78">
-        <v>3.6272341655315283E-4</v>
+        <v>8.1938873125835822E-4</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -2402,10 +2402,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>3.7610489395154651E-4</v>
+        <v>8.5331547843899046E-4</v>
       </c>
       <c r="C79">
-        <v>3.6272341655315283E-4</v>
+        <v>8.1938873125835822E-4</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -2413,10 +2413,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>3.7610489395154651E-4</v>
+        <v>8.5331547843899046E-4</v>
       </c>
       <c r="C80">
-        <v>3.6272341655315283E-4</v>
+        <v>8.1938873125835822E-4</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -2424,10 +2424,10 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>3.7610489395154651E-4</v>
+        <v>8.5331547843899046E-4</v>
       </c>
       <c r="C81">
-        <v>3.6272341655315283E-4</v>
+        <v>8.1938873125835822E-4</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -2435,10 +2435,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>3.118784133208949E-4</v>
+        <v>7.0061208470810238E-4</v>
       </c>
       <c r="C82">
-        <v>3.0126206816100272E-4</v>
+        <v>6.7325965193467091E-4</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -2446,10 +2446,10 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>3.118784133208949E-4</v>
+        <v>7.0061208470810238E-4</v>
       </c>
       <c r="C83">
-        <v>3.0126206816100272E-4</v>
+        <v>6.7325965193467091E-4</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -2457,10 +2457,10 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>3.118784133208949E-4</v>
+        <v>7.0061208470810238E-4</v>
       </c>
       <c r="C84">
-        <v>3.0126206816100272E-4</v>
+        <v>6.7325965193467091E-4</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -2468,10 +2468,10 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>3.118784133208949E-4</v>
+        <v>7.0061208470810238E-4</v>
       </c>
       <c r="C85">
-        <v>3.0126206816100272E-4</v>
+        <v>6.7325965193467091E-4</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -2479,10 +2479,10 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>3.118784133208949E-4</v>
+        <v>7.0061208470810238E-4</v>
       </c>
       <c r="C86">
-        <v>3.0126206816100272E-4</v>
+        <v>6.7325965193467091E-4</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -2490,10 +2490,10 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1.3517018403257227E-4</v>
+        <v>2.8047468892458243E-4</v>
       </c>
       <c r="C87">
-        <v>1.3216162956611091E-4</v>
+        <v>2.7121036321032415E-4</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -2501,10 +2501,10 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1.3517018403257227E-4</v>
+        <v>2.8047468892458243E-4</v>
       </c>
       <c r="C88">
-        <v>1.3216162956611091E-4</v>
+        <v>2.7121036321032415E-4</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -2512,10 +2512,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1.3517018403257227E-4</v>
+        <v>2.8047468892458243E-4</v>
       </c>
       <c r="C89">
-        <v>1.3216162956611091E-4</v>
+        <v>2.7121036321032415E-4</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -2523,10 +2523,10 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1.3517018403257227E-4</v>
+        <v>2.8047468892458243E-4</v>
       </c>
       <c r="C90">
-        <v>1.3216162956611091E-4</v>
+        <v>2.7121036321032415E-4</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -2534,10 +2534,10 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1.3517018403257227E-4</v>
+        <v>2.8047468892458243E-4</v>
       </c>
       <c r="C91">
-        <v>1.3216162956611091E-4</v>
+        <v>2.7121036321032415E-4</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -2545,10 +2545,10 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1.3517018403257227E-4</v>
+        <v>2.8047468892458243E-4</v>
       </c>
       <c r="C92">
-        <v>1.3216162956611091E-4</v>
+        <v>2.7121036321032415E-4</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -2556,10 +2556,10 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1.3517018403257227E-4</v>
+        <v>2.8047468892458243E-4</v>
       </c>
       <c r="C93">
-        <v>1.3216162956611091E-4</v>
+        <v>2.7121036321032415E-4</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -2567,10 +2567,10 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1.3517018403257227E-4</v>
+        <v>2.8047468892458243E-4</v>
       </c>
       <c r="C94">
-        <v>1.3216162956611091E-4</v>
+        <v>2.7121036321032415E-4</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -2578,10 +2578,10 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1.3517018403257227E-4</v>
+        <v>2.8047468892458243E-4</v>
       </c>
       <c r="C95">
-        <v>1.3216162956611091E-4</v>
+        <v>2.7121036321032415E-4</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -2589,10 +2589,10 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1.3517018403257227E-4</v>
+        <v>2.8047468892458243E-4</v>
       </c>
       <c r="C96">
-        <v>1.3216162956611091E-4</v>
+        <v>2.7121036321032415E-4</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -2600,10 +2600,10 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1.3517018403257227E-4</v>
+        <v>2.8047468892458243E-4</v>
       </c>
       <c r="C97">
-        <v>1.3216162956611091E-4</v>
+        <v>2.7121036321032415E-4</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -2611,10 +2611,10 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1.3517018403257227E-4</v>
+        <v>2.8047468892458243E-4</v>
       </c>
       <c r="C98">
-        <v>1.3216162956611091E-4</v>
+        <v>2.7121036321032415E-4</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -2622,10 +2622,10 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1.3517018403257227E-4</v>
+        <v>2.8047468892458243E-4</v>
       </c>
       <c r="C99">
-        <v>1.3216162956611091E-4</v>
+        <v>2.7121036321032415E-4</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -2633,10 +2633,10 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1.3517018403257227E-4</v>
+        <v>2.8047468892458243E-4</v>
       </c>
       <c r="C100">
-        <v>1.3216162956611091E-4</v>
+        <v>2.7121036321032415E-4</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -2644,10 +2644,10 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1.3517018403257227E-4</v>
+        <v>2.8047468892458243E-4</v>
       </c>
       <c r="C101">
-        <v>1.3216162956611091E-4</v>
+        <v>2.7121036321032415E-4</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -2655,10 +2655,10 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1.3517018403257227E-4</v>
+        <v>2.8047468892458243E-4</v>
       </c>
       <c r="C102">
-        <v>1.3216162956611091E-4</v>
+        <v>2.7121036321032415E-4</v>
       </c>
     </row>
   </sheetData>
